--- a/Bayesian_Network.xlsx
+++ b/Bayesian_Network.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/US_Childhood_Vaccination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1854" documentId="8_{6F3C0EC4-B05E-49C9-957A-5A7C6349D987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C8D855E-1A32-4F17-AA70-670C97F31785}"/>
+  <xr:revisionPtr revIDLastSave="1888" documentId="8_{6F3C0EC4-B05E-49C9-957A-5A7C6349D987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C3EDB4C-D23D-4E42-B43B-4A394AE4726E}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="3" xr2:uid="{2B641507-0A2A-4EEA-AAB6-89B25250E768}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B641507-0A2A-4EEA-AAB6-89B25250E768}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
-    <sheet name="AIC_Optimal_alpha=0.01" sheetId="1" r:id="rId2"/>
-    <sheet name="AIC_Optimal_alpha=0.05" sheetId="12" r:id="rId3"/>
-    <sheet name="AIC_Optimal" sheetId="13" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId2"/>
+    <sheet name="AIC_Optimal_alpha=0.01" sheetId="1" r:id="rId3"/>
+    <sheet name="AIC_Optimal_alpha=0.05" sheetId="12" r:id="rId4"/>
+    <sheet name="AIC_Optimal" sheetId="13" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$O$49</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -659,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCBBF67-6DCE-4978-BDCA-65F5E19AE023}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="H14" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,14 +955,29 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13">
+        <v>45</v>
+      </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="13"/>
+      <c r="K7" s="11">
+        <v>-7345.2319503844401</v>
+      </c>
+      <c r="L7" s="11">
+        <v>15133.675063869199</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="0"/>
+        <v>14780.46390076888</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" ref="N7" si="3">L7-MIN(L:L)</f>
+        <v>6357.8630549705595</v>
+      </c>
+      <c r="O7" s="13">
+        <f t="shared" ref="O7" si="4">M7-MIN(M:M)</f>
+        <v>6436.3544245484809</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -1388,15 +1407,15 @@
         <v>15733.346210677</v>
       </c>
       <c r="M17" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M17:M49" si="5">-2*K17+2*H17</f>
         <v>15380.135047576639</v>
       </c>
       <c r="N17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N17:N49" si="6">L17-MIN(L:L)</f>
         <v>6957.5342017783605</v>
       </c>
       <c r="O17" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O17:O49" si="7">M17-MIN(M:M)</f>
         <v>7036.0255713562401</v>
       </c>
     </row>
@@ -1428,15 +1447,15 @@
         <v>9035.6095385689896</v>
       </c>
       <c r="M18" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8619.6052798063192</v>
       </c>
       <c r="N18" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>259.79752967034983</v>
       </c>
       <c r="O18" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>275.49580358591993</v>
       </c>
     </row>
@@ -1452,14 +1471,29 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13">
+        <v>45</v>
+      </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="13"/>
+      <c r="K19" s="11">
+        <v>-7645.0675237883197</v>
+      </c>
+      <c r="L19" s="11">
+        <v>15733.346210677</v>
+      </c>
+      <c r="M19" s="13">
+        <f t="shared" si="5"/>
+        <v>15380.135047576639</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" si="6"/>
+        <v>6957.5342017783605</v>
+      </c>
+      <c r="O19" s="13">
+        <f t="shared" si="7"/>
+        <v>7036.0255713562401</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -1499,15 +1533,15 @@
         <v>12319.997211121899</v>
       </c>
       <c r="M20" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11966.78604802158</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3544.1852022232597</v>
       </c>
       <c r="O20" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3622.6765718011811</v>
       </c>
     </row>
@@ -1539,15 +1573,15 @@
         <v>10158.996678543601</v>
       </c>
       <c r="M21" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>9758.6906936965606</v>
       </c>
       <c r="N21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1383.1846696449611</v>
       </c>
       <c r="O21" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1414.5812174761613</v>
       </c>
     </row>
@@ -1579,15 +1613,15 @@
         <v>10936.812541477</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10552.204830545519</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2161.0005325783604</v>
       </c>
       <c r="O22" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2208.0953543251198</v>
       </c>
     </row>
@@ -1629,15 +1663,15 @@
         <v>13016.251002773701</v>
       </c>
       <c r="M23" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12655.190702715559</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4240.438993875061</v>
       </c>
       <c r="O23" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4311.0812264951601</v>
       </c>
     </row>
@@ -1669,15 +1703,15 @@
         <v>11085.2808738285</v>
       </c>
       <c r="M24" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10692.824025939241</v>
       </c>
       <c r="N24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2309.4688649298605</v>
       </c>
       <c r="O24" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2348.7145497188412</v>
       </c>
     </row>
@@ -1709,15 +1743,15 @@
         <v>10966.579667514199</v>
       </c>
       <c r="M25" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10581.97195658272</v>
       </c>
       <c r="N25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2190.7676586155594</v>
       </c>
       <c r="O25" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2237.8624803623206</v>
       </c>
     </row>
@@ -1759,15 +1793,15 @@
         <v>15547.614897278499</v>
       </c>
       <c r="M26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>15194.40373417814</v>
       </c>
       <c r="N26" s="10">
-        <f t="shared" ref="N26:N27" si="3">L26-MIN(L:L)</f>
+        <f t="shared" si="6"/>
         <v>6771.8028883798597</v>
       </c>
       <c r="O26" s="12">
-        <f t="shared" ref="O26:O27" si="4">M26-MIN(M:M)</f>
+        <f t="shared" si="7"/>
         <v>6850.2942579577411</v>
       </c>
     </row>
@@ -1799,15 +1833,15 @@
         <v>9979.8961058882796</v>
       </c>
       <c r="M27" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>9548.1935732100392</v>
       </c>
       <c r="N27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1204.0840969896399</v>
       </c>
       <c r="O27" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1204.0840969896399</v>
       </c>
     </row>
@@ -1823,14 +1857,29 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="12"/>
+      <c r="H28" s="12">
+        <v>45</v>
+      </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="12"/>
+      <c r="K28" s="10">
+        <v>-7552.2018670890702</v>
+      </c>
+      <c r="L28" s="10">
+        <v>15547.614897278499</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" si="5"/>
+        <v>15194.40373417814</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="6"/>
+        <v>6771.8028883798597</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" si="7"/>
+        <v>6850.2942579577411</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -1870,15 +1919,15 @@
         <v>15133.675063869299</v>
       </c>
       <c r="M29" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>14780.46390076892</v>
       </c>
       <c r="N29" s="11">
-        <f t="shared" ref="N29:N30" si="5">L29-MIN(L:L)</f>
+        <f t="shared" si="6"/>
         <v>6357.8630549706595</v>
       </c>
       <c r="O29" s="13">
-        <f t="shared" ref="O29:O30" si="6">M29-MIN(M:M)</f>
+        <f t="shared" si="7"/>
         <v>6436.3544245485209</v>
       </c>
     </row>
@@ -1910,15 +1959,15 @@
         <v>10209.950283570101</v>
       </c>
       <c r="M30" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>9793.9460248074593</v>
       </c>
       <c r="N30" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1434.1382746714607</v>
       </c>
       <c r="O30" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1449.83654858706</v>
       </c>
     </row>
@@ -1934,14 +1983,29 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="13"/>
+      <c r="H31" s="13">
+        <v>45</v>
+      </c>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="13"/>
+      <c r="K31" s="11">
+        <v>-7345.2319503844601</v>
+      </c>
+      <c r="L31" s="11">
+        <v>15133.675063869299</v>
+      </c>
+      <c r="M31" s="13">
+        <f t="shared" si="5"/>
+        <v>14780.46390076892</v>
+      </c>
+      <c r="N31" s="11">
+        <f t="shared" si="6"/>
+        <v>6357.8630549706595</v>
+      </c>
+      <c r="O31" s="13">
+        <f t="shared" si="7"/>
+        <v>6436.3544245485209</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
@@ -1981,15 +2045,15 @@
         <v>14165.8093415853</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>13804.74904152722</v>
       </c>
       <c r="N32" s="10">
-        <f t="shared" ref="N32:N34" si="7">L32-MIN(L:L)</f>
+        <f t="shared" si="6"/>
         <v>5389.9973326866602</v>
       </c>
       <c r="O32" s="12">
-        <f t="shared" ref="O32:O34" si="8">M32-MIN(M:M)</f>
+        <f t="shared" si="7"/>
         <v>5460.6395653068212</v>
       </c>
     </row>
@@ -2021,15 +2085,15 @@
         <v>12353.3215114991</v>
       </c>
       <c r="M33" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11953.01552665202</v>
       </c>
       <c r="N33" s="11">
+        <f t="shared" si="6"/>
+        <v>3577.5095026004601</v>
+      </c>
+      <c r="O33" s="13">
         <f t="shared" si="7"/>
-        <v>3577.5095026004601</v>
-      </c>
-      <c r="O33" s="13">
-        <f t="shared" si="8"/>
         <v>3608.9060504316203</v>
       </c>
     </row>
@@ -2061,15 +2125,15 @@
         <v>11792.3839359747</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11399.9270880854</v>
       </c>
       <c r="N34" s="12">
+        <f t="shared" si="6"/>
+        <v>3016.5719270760601</v>
+      </c>
+      <c r="O34" s="12">
         <f t="shared" si="7"/>
-        <v>3016.5719270760601</v>
-      </c>
-      <c r="O34" s="12">
-        <f t="shared" si="8"/>
         <v>3055.8176118650008</v>
       </c>
     </row>
@@ -2111,15 +2175,15 @@
         <v>14101.3489706943</v>
       </c>
       <c r="M35" s="13">
-        <f t="shared" ref="M35:M49" si="9">-2*K35+2*H35</f>
+        <f t="shared" si="5"/>
         <v>13740.288670636181</v>
       </c>
       <c r="N35" s="11">
-        <f t="shared" ref="N35:N49" si="10">L35-MIN(L:L)</f>
+        <f t="shared" si="6"/>
         <v>5325.5369617956603</v>
       </c>
       <c r="O35" s="13">
-        <f t="shared" ref="O35:O49" si="11">M35-MIN(M:M)</f>
+        <f t="shared" si="7"/>
         <v>5396.1791944157812</v>
       </c>
     </row>
@@ -2151,15 +2215,15 @@
         <v>12425.982028430401</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>12033.525180541121</v>
       </c>
       <c r="N36" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>3650.1700195317608</v>
       </c>
       <c r="O36" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>3689.4157043207215</v>
       </c>
     </row>
@@ -2191,15 +2255,15 @@
         <v>11885.317225834</v>
       </c>
       <c r="M37" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>11500.709514902521</v>
       </c>
       <c r="N37" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>3109.5052169353603</v>
       </c>
       <c r="O37" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>3156.6000386821215</v>
       </c>
     </row>
@@ -2241,15 +2305,15 @@
         <v>15641.1924378394</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>15280.13213778128</v>
       </c>
       <c r="N38" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>6865.3804289407599</v>
       </c>
       <c r="O38" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>6936.0226615608808</v>
       </c>
     </row>
@@ -2281,15 +2345,15 @@
         <v>8775.8120088986398</v>
       </c>
       <c r="M39" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>8344.1094762203993</v>
       </c>
       <c r="N39" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O39" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2305,14 +2369,29 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="12"/>
+      <c r="H40" s="12">
+        <v>46</v>
+      </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="12"/>
+      <c r="K40" s="10">
+        <v>-7594.0660688906401</v>
+      </c>
+      <c r="L40" s="10">
+        <v>15641.1924378394</v>
+      </c>
+      <c r="M40" s="12">
+        <f t="shared" si="5"/>
+        <v>15280.13213778128</v>
+      </c>
+      <c r="N40" s="10">
+        <f t="shared" si="6"/>
+        <v>6865.3804289407599</v>
+      </c>
+      <c r="O40" s="12">
+        <f t="shared" si="7"/>
+        <v>6936.0226615608808</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
@@ -2352,15 +2431,15 @@
         <v>15733.346210677</v>
       </c>
       <c r="M41" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>15380.135047576659</v>
       </c>
       <c r="N41" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>6957.5342017783605</v>
       </c>
       <c r="O41" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>7036.0255713562601</v>
       </c>
     </row>
@@ -2392,15 +2471,15 @@
         <v>9035.6095385689696</v>
       </c>
       <c r="M42" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>8619.6052798062992</v>
       </c>
       <c r="N42" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>259.79752967032982</v>
       </c>
       <c r="O42" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>275.49580358589992</v>
       </c>
     </row>
@@ -2416,14 +2495,29 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="13"/>
+      <c r="H43" s="13">
+        <v>45</v>
+      </c>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="13"/>
+      <c r="K43" s="11">
+        <v>-7645.0675237883297</v>
+      </c>
+      <c r="L43" s="11">
+        <v>15733.346210677</v>
+      </c>
+      <c r="M43" s="13">
+        <f t="shared" si="5"/>
+        <v>15380.135047576659</v>
+      </c>
+      <c r="N43" s="11">
+        <f t="shared" si="6"/>
+        <v>6957.5342017783605</v>
+      </c>
+      <c r="O43" s="13">
+        <f t="shared" si="7"/>
+        <v>7036.0255713562601</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
@@ -2463,15 +2557,15 @@
         <v>13081.4908906868</v>
       </c>
       <c r="M44" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>12720.430590628701</v>
       </c>
       <c r="N44" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>4305.6788817881607</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>4376.3211144083016</v>
       </c>
     </row>
@@ -2503,15 +2597,15 @@
         <v>10982.8770049088</v>
       </c>
       <c r="M45" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>10582.57102006174</v>
       </c>
       <c r="N45" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2207.06499601016</v>
       </c>
       <c r="O45" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>2238.4615438413402</v>
       </c>
     </row>
@@ -2543,15 +2637,15 @@
         <v>10874.4258946768</v>
       </c>
       <c r="M46" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>10481.969046787541</v>
       </c>
       <c r="N46" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2098.6138857781607</v>
       </c>
       <c r="O46" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>2137.8595705671414</v>
       </c>
     </row>
@@ -2593,15 +2687,15 @@
         <v>13016.251002773701</v>
       </c>
       <c r="M47" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>12655.190702715579</v>
       </c>
       <c r="N47" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>4240.438993875061</v>
       </c>
       <c r="O47" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>4311.0812264951801</v>
       </c>
     </row>
@@ -2633,15 +2727,15 @@
         <v>11085.2808738286</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>10692.824025939301</v>
       </c>
       <c r="N48" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2309.4688649299605</v>
       </c>
       <c r="O48" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>2348.7145497189013</v>
       </c>
     </row>
@@ -2673,15 +2767,416 @@
         <v>10966.579667514199</v>
       </c>
       <c r="M49" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>10581.97195658272</v>
       </c>
       <c r="N49" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2190.7676586155594</v>
       </c>
       <c r="O49" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
+        <v>2237.8624803623206</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:O49" xr:uid="{5CCBBF67-6DCE-4978-BDCA-65F5E19AE023}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56386DA6-582C-42D7-B016-6A58CAA60CE2}">
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12">
+        <v>12873.88569843792</v>
+      </c>
+      <c r="B1" s="12">
+        <v>4529.7762222175206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>14780.46390076888</v>
+      </c>
+      <c r="B2" s="13">
+        <v>6436.3544245484809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>12663.2788279794</v>
+      </c>
+      <c r="B3" s="12">
+        <v>4319.1693517590011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>13740.288670636141</v>
+      </c>
+      <c r="B4" s="13">
+        <v>5396.1791944157412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>12190.5065728557</v>
+      </c>
+      <c r="B5" s="12">
+        <v>3846.3970966353008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>15380.135047576639</v>
+      </c>
+      <c r="B6" s="13">
+        <v>7036.0255713562401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>11966.78604802158</v>
+      </c>
+      <c r="B7" s="12">
+        <v>3622.6765718011811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>12655.190702715559</v>
+      </c>
+      <c r="B8" s="13">
+        <v>4311.0812264951601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>15194.40373417814</v>
+      </c>
+      <c r="B9" s="12">
+        <v>6850.2942579577411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>14780.46390076892</v>
+      </c>
+      <c r="B10" s="13">
+        <v>6436.3544245485209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>13804.74904152722</v>
+      </c>
+      <c r="B11" s="12">
+        <v>5460.6395653068212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>13740.288670636181</v>
+      </c>
+      <c r="B12" s="13">
+        <v>5396.1791944157812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>15280.13213778128</v>
+      </c>
+      <c r="B13" s="12">
+        <v>6936.0226615608808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>15380.135047576659</v>
+      </c>
+      <c r="B14" s="13">
+        <v>7036.0255713562601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>12720.430590628701</v>
+      </c>
+      <c r="B15" s="12">
+        <v>4376.3211144083016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>12655.190702715579</v>
+      </c>
+      <c r="B16" s="13">
+        <v>4311.0812264951801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>10993.27303425826</v>
+      </c>
+      <c r="B17" s="13">
+        <v>2649.1635580378606</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>9793.9460248074593</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1449.83654858706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>10782.66616379988</v>
+      </c>
+      <c r="B19" s="13">
+        <v>2438.5566875794811</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>12033.525180541141</v>
+      </c>
+      <c r="B20" s="12">
+        <v>3689.4157043207415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>9982.4112185306403</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1638.301742310241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>8619.6052798063192</v>
+      </c>
+      <c r="B22" s="12">
+        <v>275.49580358591993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>9758.6906936965606</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1414.5812174761613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>10692.824025939241</v>
+      </c>
+      <c r="B24" s="12">
+        <v>2348.7145497188412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>9548.1935732100392</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1204.0840969896399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>9793.9460248074593</v>
+      </c>
+      <c r="B26" s="12">
+        <v>1449.83654858706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>11953.01552665202</v>
+      </c>
+      <c r="B27" s="13">
+        <v>3608.9060504316203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>12033.525180541121</v>
+      </c>
+      <c r="B28" s="12">
+        <v>3689.4157043207215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>8344.1094762203993</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>8619.6052798062992</v>
+      </c>
+      <c r="B30" s="12">
+        <v>275.49580358589992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>10582.57102006174</v>
+      </c>
+      <c r="B31" s="13">
+        <v>2238.4615438413402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>10692.824025939301</v>
+      </c>
+      <c r="B32" s="12">
+        <v>2348.7145497189013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>11445.148321188261</v>
+      </c>
+      <c r="B33" s="12">
+        <v>3101.0388449678612</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>14780.46390076888</v>
+      </c>
+      <c r="B34" s="13">
+        <v>6436.3544245484809</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>11428.806237389619</v>
+      </c>
+      <c r="B35" s="12">
+        <v>3084.6967611692198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>11500.709514902541</v>
+      </c>
+      <c r="B36" s="13">
+        <v>3156.6000386821415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>10555.02919085842</v>
+      </c>
+      <c r="B37" s="12">
+        <v>2210.9197146380211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>15380.135047576639</v>
+      </c>
+      <c r="B38" s="13">
+        <v>7036.0255713562401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>10552.204830545519</v>
+      </c>
+      <c r="B39" s="12">
+        <v>2208.0953543251198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>10581.97195658272</v>
+      </c>
+      <c r="B40" s="13">
+        <v>2237.8624803623206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>15194.40373417814</v>
+      </c>
+      <c r="B41" s="12">
+        <v>6850.2942579577411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>14780.46390076892</v>
+      </c>
+      <c r="B42" s="13">
+        <v>6436.3544245485209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>11399.9270880854</v>
+      </c>
+      <c r="B43" s="12">
+        <v>3055.8176118650008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>11500.709514902521</v>
+      </c>
+      <c r="B44" s="13">
+        <v>3156.6000386821215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>15280.13213778128</v>
+      </c>
+      <c r="B45" s="12">
+        <v>6936.0226615608808</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>15380.135047576659</v>
+      </c>
+      <c r="B46" s="13">
+        <v>7036.0255713562601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>10481.969046787541</v>
+      </c>
+      <c r="B47" s="12">
+        <v>2137.8595705671414</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>10581.97195658272</v>
+      </c>
+      <c r="B48" s="13">
         <v>2237.8624803623206</v>
       </c>
     </row>
@@ -2691,7 +3186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F3D652-15C9-479A-BA23-31F9850A25A3}">
   <dimension ref="A1:M15"/>
   <sheetViews>
@@ -3291,7 +3786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBA1BBD-64AE-4E4A-83DB-7324742AE0F3}">
   <dimension ref="A1:M15"/>
   <sheetViews>
@@ -3886,11 +4381,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5344EA42-7693-489A-AD60-EBB9BB2FB1D5}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
